--- a/data/Annelinn/archetypes/stats_trans.xlsx
+++ b/data/Annelinn/archetypes/stats_trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Annelinn\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27C9827-649F-4F4D-891F-02573A0C7194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBA6B3C-CD6C-4A5C-A66E-9D906A6F703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,16 +467,16 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.44</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -507,16 +507,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.61</v>
+        <v>1.27</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -547,16 +547,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.49</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -587,16 +587,16 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.49</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,16 +627,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.72</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D10">
-        <v>0.12</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -667,16 +667,16 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.55000000000000004</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -707,16 +707,16 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.83</v>
+        <v>1.27</v>
       </c>
       <c r="D14">
-        <v>0.12</v>
+        <v>0.68</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -747,16 +747,16 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <v>1.27</v>
       </c>
       <c r="D16">
-        <v>0.11</v>
+        <v>0.68</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
